--- a/Backlog Priorizado del producto.xlsx
+++ b/Backlog Priorizado del producto.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Diaz Amaro\Documents\INFE SOF 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Diaz Amaro\Documents\INGE SOF 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FF3D941-28CF-4BD5-8DE2-2E7871807445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6E425-79BC-4F50-A700-1BB0601BE146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5AEAAA88-76EF-4ED7-B539-DA0EA4017A12}"/>
   </bookViews>
@@ -16,7 +16,6 @@
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
   <si>
     <t>#</t>
   </si>
@@ -309,6 +308,16 @@
   <si>
     <t>No identificar 
 todas las tareas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lista de tareas
+</t>
+  </si>
+  <si>
+    <t>No logramos identificar todas, pero el SCRUM MASTER nos ayudo.</t>
+  </si>
+  <si>
+    <t>Borrador de una prueba conceptual</t>
   </si>
 </sst>
 </file>
@@ -754,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A891D1-6330-4090-8B56-12D8E4CD4115}">
   <dimension ref="A1:M24"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -768,10 +777,10 @@
     <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="15.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.42578125" style="3"/>
     <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.5703125" style="1" customWidth="1"/>
     <col min="14" max="16384" width="11.42578125" style="1"/>
   </cols>
@@ -828,7 +837,7 @@
         <v>44935</v>
       </c>
       <c r="D2" s="2">
-        <v>44941</v>
+        <v>44939</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>35</v>
@@ -866,7 +875,7 @@
         <v>44938</v>
       </c>
       <c r="D3" s="2">
-        <v>44941</v>
+        <v>44942</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>26</v>
@@ -1056,7 +1065,7 @@
         <v>44966</v>
       </c>
       <c r="D8" s="2">
-        <v>44969</v>
+        <v>44966</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>36</v>
@@ -1091,10 +1100,10 @@
         <v>16</v>
       </c>
       <c r="C9" s="2">
-        <v>44966</v>
+        <v>44971</v>
       </c>
       <c r="D9" s="2">
-        <v>44969</v>
+        <v>44985</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>33</v>
@@ -1129,10 +1138,10 @@
         <v>17</v>
       </c>
       <c r="C10" s="2">
-        <v>44970</v>
+        <v>44973</v>
       </c>
       <c r="D10" s="2">
-        <v>44970</v>
+        <v>44985</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>33</v>
@@ -1167,10 +1176,10 @@
         <v>49</v>
       </c>
       <c r="C11" s="2">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="D11" s="2">
-        <v>44971</v>
+        <v>44980</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>65</v>
@@ -1208,7 +1217,7 @@
         <v>44978</v>
       </c>
       <c r="D12" s="2">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>65</v>
@@ -1243,10 +1252,10 @@
         <v>48</v>
       </c>
       <c r="C13" s="2">
-        <v>44985</v>
+        <v>44980</v>
       </c>
       <c r="D13" s="2">
-        <v>44986</v>
+        <v>44980</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>36</v>
@@ -1281,10 +1290,10 @@
         <v>44</v>
       </c>
       <c r="C14" s="2">
-        <v>44987</v>
+        <v>44980</v>
       </c>
       <c r="D14" s="2">
-        <v>44987</v>
+        <v>44980</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>65</v>
@@ -1319,10 +1328,10 @@
         <v>45</v>
       </c>
       <c r="C15" s="2">
-        <v>44991</v>
+        <v>44980</v>
       </c>
       <c r="D15" s="2">
-        <v>44991</v>
+        <v>44980</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>65</v>
@@ -1349,23 +1358,77 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C16" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44984</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I16" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
       <c r="B17" s="4" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C17" s="2">
+        <v>44987</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44992</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
@@ -1373,7 +1436,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17.100000000000001</v>
       </c>
@@ -1381,7 +1444,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
         <v>57</v>
       </c>
@@ -1389,7 +1452,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>59</v>
       </c>
@@ -1397,7 +1460,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
         <v>30</v>
       </c>
@@ -1405,7 +1468,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1413,7 +1476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="1">
         <v>19</v>
       </c>

--- a/Backlog Priorizado del producto.xlsx
+++ b/Backlog Priorizado del producto.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Oscar Diaz Amaro\Documents\INGE SOF 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DESCARGAS\Mis Documentos\GitHub\INGE-SOF-2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AE6E425-79BC-4F50-A700-1BB0601BE146}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{417759CA-D83C-4556-A2A4-7337DF305235}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13140" xr2:uid="{5AEAAA88-76EF-4ED7-B539-DA0EA4017A12}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5AEAAA88-76EF-4ED7-B539-DA0EA4017A12}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="734" uniqueCount="160">
   <si>
     <t>#</t>
   </si>
@@ -218,9 +219,6 @@
   <si>
     <t>Libreta y
  laptop</t>
-  </si>
-  <si>
-    <t>Sprint 1:</t>
   </si>
   <si>
     <t xml:space="preserve">Reunión para establecer sprint (Elegir
@@ -318,6 +316,240 @@
   </si>
   <si>
     <t>Borrador de una prueba conceptual</t>
+  </si>
+  <si>
+    <t>17.2.1</t>
+  </si>
+  <si>
+    <t>17.2.2</t>
+  </si>
+  <si>
+    <t>17.3.1</t>
+  </si>
+  <si>
+    <t>17.3.2</t>
+  </si>
+  <si>
+    <t>17.4.1</t>
+  </si>
+  <si>
+    <t>17.4.2</t>
+  </si>
+  <si>
+    <t>17.5.1</t>
+  </si>
+  <si>
+    <t>17.5.2</t>
+  </si>
+  <si>
+    <t>17.6.1</t>
+  </si>
+  <si>
+    <t>17.6.2</t>
+  </si>
+  <si>
+    <t>17.7.1</t>
+  </si>
+  <si>
+    <t>17.7.2</t>
+  </si>
+  <si>
+    <t>17.8.1</t>
+  </si>
+  <si>
+    <t>17.8.2</t>
+  </si>
+  <si>
+    <t>17.9.1</t>
+  </si>
+  <si>
+    <t>17.9.2</t>
+  </si>
+  <si>
+    <t>17.10.1</t>
+  </si>
+  <si>
+    <t>17.10.2</t>
+  </si>
+  <si>
+    <t>17.10.</t>
+  </si>
+  <si>
+    <t>17.11.1</t>
+  </si>
+  <si>
+    <t>17.11.2</t>
+  </si>
+  <si>
+    <t>17.12.1</t>
+  </si>
+  <si>
+    <t>17.12.2</t>
+  </si>
+  <si>
+    <t>17.13.1</t>
+  </si>
+  <si>
+    <t>17.13.2</t>
+  </si>
+  <si>
+    <t>17.14.1</t>
+  </si>
+  <si>
+    <t>17.14.2</t>
+  </si>
+  <si>
+    <t>17.15.1</t>
+  </si>
+  <si>
+    <t>17.15.2</t>
+  </si>
+  <si>
+    <t>17.16.1</t>
+  </si>
+  <si>
+    <t>17.16.2</t>
+  </si>
+  <si>
+    <t>Sprint 1: Registro</t>
+  </si>
+  <si>
+    <t>Sprint 3: Vinculación</t>
+  </si>
+  <si>
+    <t>Sprint 2: Login</t>
+  </si>
+  <si>
+    <t>Sprint 4: Registrar Contactos</t>
+  </si>
+  <si>
+    <t>Sprint 5: Llamar Contactos</t>
+  </si>
+  <si>
+    <t>Sprint 6: Modificar Contactos</t>
+  </si>
+  <si>
+    <t>Sprint 7: Eliminar Contactos</t>
+  </si>
+  <si>
+    <t>Sprint 8: Añadir Recordatorio</t>
+  </si>
+  <si>
+    <t>Sprint 9: Modificar Recordatorio</t>
+  </si>
+  <si>
+    <t>Sprint 10: Eliminar Recordatorio</t>
+  </si>
+  <si>
+    <t>Sprint 11: Visualizar Recordatorio</t>
+  </si>
+  <si>
+    <t>Sprint 12: Visualizar Contacto</t>
+  </si>
+  <si>
+    <t>Sprint 13: Agregar Datos Médicos</t>
+  </si>
+  <si>
+    <t>Sprint 14: Actualizar Datos Médicos</t>
+  </si>
+  <si>
+    <t>Sprint 15: Visualizar Datos Médicos</t>
+  </si>
+  <si>
+    <t>Sprint 16: Eliminar Cuenta</t>
+  </si>
+  <si>
+    <t>SCRUM Master</t>
+  </si>
+  <si>
+    <t>Hoja de excel con las especificaciones de los sprints</t>
+  </si>
+  <si>
+    <t>No cubrir bien las fechas planteadas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laptop </t>
+  </si>
+  <si>
+    <t>React native, Visual studio code</t>
+  </si>
+  <si>
+    <t>Perdida de código</t>
+  </si>
+  <si>
+    <t>SCRUM Master y Equipo SCRUM</t>
+  </si>
+  <si>
+    <t>Aplicación terminada</t>
+  </si>
+  <si>
+    <t>Primera funcion de la aplicación (Registro de usuario nuevo)</t>
+  </si>
+  <si>
+    <t>Funcion para iniciar sesion en la aplicación (Login)</t>
+  </si>
+  <si>
+    <t>Funcion que permite vincular las cuentas de los usuarios</t>
+  </si>
+  <si>
+    <t>Funcion que añade contactos nuevos a la cuenta del usuario</t>
+  </si>
+  <si>
+    <t>Funcion de la aplicación para poder modificar los datos de los contactos existentes</t>
+  </si>
+  <si>
+    <t>Funcion para eliminar los registros de los contactos existentes</t>
+  </si>
+  <si>
+    <t>Funcion para añadir recordatorios a la aplicación</t>
+  </si>
+  <si>
+    <t>funcion que permitirá modificar algun recordatorio ya establecido</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcion para eliminar recordatorios </t>
+  </si>
+  <si>
+    <t>Funcion que permite visualizar los Recordatorios previamente añadidos</t>
+  </si>
+  <si>
+    <t>Funcion que permite visualizar los contactos previamente añadidos</t>
+  </si>
+  <si>
+    <t>Funcion para llamar a los contactos ya registrados</t>
+  </si>
+  <si>
+    <t>Funcion para agregar los datos medicos necesarios sobre el usuario</t>
+  </si>
+  <si>
+    <t>Funcion que permite al usuario modificar los datos previamente añadidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Funcion para que el usuario pueda visualizar los datos medicos </t>
+  </si>
+  <si>
+    <t>Funcion que elimina por completo los datos de la cuenta registrada del usuario</t>
+  </si>
+  <si>
+    <t>No estar de acuerdo en la palneacion</t>
+  </si>
+  <si>
+    <t>Borrador con la planeacion de la codificacion</t>
+  </si>
+  <si>
+    <t>Excel y Word</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Documento con las dificultades y avances que se encontraron durante el desarrollo </t>
+  </si>
+  <si>
+    <t>Excel, Word, Visual studio code</t>
+  </si>
+  <si>
+    <t>Documentacion terminada sobre el proyecto (aplicación)</t>
+  </si>
+  <si>
+    <t>Perdida de código o no concretar la vinculacion de los dispositivos</t>
   </si>
 </sst>
 </file>
@@ -327,10 +559,16 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -344,11 +582,31 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="9"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="9"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -359,75 +617,98 @@
   <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="22">
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -443,22 +724,36 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F27649B6-9411-49A5-992B-10C77E66B1C4}" name="Tabla1" displayName="Tabla1" ref="A1:M32" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="A1:M32" xr:uid="{F27649B6-9411-49A5-992B-10C77E66B1C4}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F27649B6-9411-49A5-992B-10C77E66B1C4}" name="Tabla1" displayName="Tabla1" ref="A1:M68" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
+  <autoFilter ref="A1:M68" xr:uid="{F27649B6-9411-49A5-992B-10C77E66B1C4}"/>
   <tableColumns count="13">
-    <tableColumn id="1" xr3:uid="{12D13FCE-79BD-417E-8200-52156C70256B}" name="#" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{174D3E8D-7DFE-4B58-B3FB-406203E7BD2C}" name="Tareas/Funciones/Actividades" dataDxfId="11"/>
-    <tableColumn id="3" xr3:uid="{AF0C34B4-8D02-4ECC-9880-ED8522B065FB}" name="fecha_inicio" dataDxfId="10"/>
-    <tableColumn id="4" xr3:uid="{DC56D515-EA36-46F2-A0C5-C116AE0DAF1F}" name="fecha_termino" dataDxfId="9"/>
-    <tableColumn id="5" xr3:uid="{B1948555-7B85-4E25-A6A9-BDE644714572}" name="Recursos Humanos" dataDxfId="8"/>
-    <tableColumn id="6" xr3:uid="{E8BEB4E2-7052-46EE-90B5-15BC95BB9E5F}" name="Responsable" dataDxfId="7"/>
-    <tableColumn id="7" xr3:uid="{520C8D78-CAC2-4477-A208-E68667E91195}" name="Recursos materiales" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{9114511A-7F38-4FA8-8353-9E04E72030B9}" name="Recursos tecnologicos" dataDxfId="5"/>
-    <tableColumn id="9" xr3:uid="{BDB4473F-77A9-4B9D-924C-A146CB88C837}" name="Entregable" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{719C51E3-AC48-4142-A234-5E6472E1CC33}" name="Costo" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{6822F3EF-B1A7-49D3-BFC9-B7B39D1F45B2}" name="Riesgos" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{F1833897-C285-4125-8F2F-03C225439947}" name="Comentario" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{3A2A89D6-342C-436F-8554-CCBDCB0BBCB2}" name="Firma" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{12D13FCE-79BD-417E-8200-52156C70256B}" name="#" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{174D3E8D-7DFE-4B58-B3FB-406203E7BD2C}" name="Tareas/Funciones/Actividades" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{AF0C34B4-8D02-4ECC-9880-ED8522B065FB}" name="fecha_inicio" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{DC56D515-EA36-46F2-A0C5-C116AE0DAF1F}" name="fecha_termino" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{B1948555-7B85-4E25-A6A9-BDE644714572}" name="Recursos Humanos" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{E8BEB4E2-7052-46EE-90B5-15BC95BB9E5F}" name="Responsable" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{520C8D78-CAC2-4477-A208-E68667E91195}" name="Recursos materiales" dataDxfId="15"/>
+    <tableColumn id="8" xr3:uid="{9114511A-7F38-4FA8-8353-9E04E72030B9}" name="Recursos tecnologicos" dataDxfId="14"/>
+    <tableColumn id="9" xr3:uid="{BDB4473F-77A9-4B9D-924C-A146CB88C837}" name="Entregable" dataDxfId="13"/>
+    <tableColumn id="10" xr3:uid="{719C51E3-AC48-4142-A234-5E6472E1CC33}" name="Costo" dataDxfId="12"/>
+    <tableColumn id="11" xr3:uid="{6822F3EF-B1A7-49D3-BFC9-B7B39D1F45B2}" name="Riesgos" dataDxfId="11"/>
+    <tableColumn id="12" xr3:uid="{F1833897-C285-4125-8F2F-03C225439947}" name="Comentario" dataDxfId="10"/>
+    <tableColumn id="13" xr3:uid="{3A2A89D6-342C-436F-8554-CCBDCB0BBCB2}" name="Firma" dataDxfId="9"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{003A656F-EEF8-4B14-97EC-C345A9ECE91C}" name="Tabla2" displayName="Tabla2" ref="A1:E1048576" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+  <autoFilter ref="A1:E1048576" xr:uid="{003A656F-EEF8-4B14-97EC-C345A9ECE91C}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{C5F92083-F41D-4B5A-8FA5-36BFF7B22148}" name="#" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{D1B6FD36-4944-48C8-BC03-7AE4583B249E}" name="Tareas/Funciones/Actividades" dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{53AA8117-41B0-48E7-9928-C5832AEB3070}" name="fecha_inicio" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{31313A1F-8519-490F-AA4B-A6B2B9C66BDD}" name="fecha_termino" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{DEB69E16-92E1-4A0A-A0D7-063F8C14D702}" name="Entregable" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -761,31 +1056,2588 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3A891D1-6330-4090-8B56-12D8E4CD4115}">
-  <dimension ref="A1:M24"/>
+  <dimension ref="A1:M68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="K17" sqref="K17"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:I1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="39.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="50.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="16384" width="11.42578125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" s="2">
+        <v>44935</v>
+      </c>
+      <c r="D2" s="2">
+        <v>44939</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>44938</v>
+      </c>
+      <c r="D3" s="2">
+        <v>44942</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C4" s="2">
+        <v>44943</v>
+      </c>
+      <c r="D4" s="2">
+        <v>44943</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" s="2">
+        <v>44943</v>
+      </c>
+      <c r="D5" s="2">
+        <v>44943</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C6" s="2">
+        <v>44964</v>
+      </c>
+      <c r="D6" s="2">
+        <v>44964</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="2">
+        <v>44964</v>
+      </c>
+      <c r="D7" s="2">
+        <v>44978</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="2">
+        <v>44966</v>
+      </c>
+      <c r="D8" s="2">
+        <v>44966</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="2">
+        <v>44971</v>
+      </c>
+      <c r="D9" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C10" s="2">
+        <v>44973</v>
+      </c>
+      <c r="D10" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="3">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="L10" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D11" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="J11" s="3">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="L11" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="2">
+        <v>44978</v>
+      </c>
+      <c r="D12" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J12" s="3">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="L12" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C13" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D13" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J13" s="3">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="L13" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D14" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L14" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D15" s="2">
+        <v>44980</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="3">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L15" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="2">
+        <v>44980</v>
+      </c>
+      <c r="D16" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" s="3">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="L16" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="C17" s="2">
+        <v>44987</v>
+      </c>
+      <c r="D17" s="2">
+        <v>44992</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="J17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="L18" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44994</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" s="3">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L19" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C20" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J20" s="3">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L20" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C21" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I21" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J21" s="3">
+        <v>0</v>
+      </c>
+      <c r="L21" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44999</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I22" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="J22" s="3">
+        <v>0</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L22" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44995</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J23" s="3">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L23" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44999</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J24" s="3">
+        <v>0</v>
+      </c>
+      <c r="L24" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44996</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45009</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="J25" s="3">
+        <v>0</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44996</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44996</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I26" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J26" s="3">
+        <v>0</v>
+      </c>
+      <c r="K26" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L26" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45009</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45009</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I27" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J27" s="3">
+        <v>0</v>
+      </c>
+      <c r="L27" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45010</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45013</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I28" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="3">
+        <v>0</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L28" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45010</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I29" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J29" s="3">
+        <v>0</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L29" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45013</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45013</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45014</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45034</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I31" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="J31" s="3">
+        <v>0</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L31" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45014</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45014</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J32" s="3">
+        <v>0</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L32" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45034</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45034</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I33" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J33" s="3">
+        <v>0</v>
+      </c>
+      <c r="L33" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45036</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I34" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="J34" s="3">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L34" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45035</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J35" s="3">
+        <v>0</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L35" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45036</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J36" s="3">
+        <v>0</v>
+      </c>
+      <c r="L36" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45037</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I37" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="J37" s="3">
+        <v>0</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L37" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="38" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45037</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45037</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J38" s="3">
+        <v>0</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="39" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I39" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J39" s="3">
+        <v>0</v>
+      </c>
+      <c r="L39" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45043</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I40" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="J40" s="3">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L40" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F41" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J41" s="3">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L41" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45043</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45043</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I42" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="J43" s="3">
+        <v>0</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L43" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F44" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I44" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J44" s="3">
+        <v>0</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L44" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="45" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I45" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45049</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45050</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G46" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L46" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45049</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45049</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I47" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J47" s="3">
+        <v>0</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L47" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45050</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45050</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I48" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J48" s="3">
+        <v>0</v>
+      </c>
+      <c r="L48" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45055</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F49" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I49" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="J49" s="3">
+        <v>0</v>
+      </c>
+      <c r="K49" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L49" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F50" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I50" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J50" s="3">
+        <v>0</v>
+      </c>
+      <c r="K50" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L50" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45055</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45055</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F51" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I51" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>17.12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45056</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45057</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G52" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I52" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="J52" s="3">
+        <v>0</v>
+      </c>
+      <c r="K52" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L52" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="53" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45056</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45056</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F53" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I53" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J53" s="3">
+        <v>0</v>
+      </c>
+      <c r="K53" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L53" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45057</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45057</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F54" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I54" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J54" s="3">
+        <v>0</v>
+      </c>
+      <c r="L54" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="55" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>17.13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45058</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45062</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I55" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="J55" s="3">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L55" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="56" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45058</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45058</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I56" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J56" s="3">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L56" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="57" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45062</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45062</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I57" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J57" s="3">
+        <v>0</v>
+      </c>
+      <c r="L57" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>17.14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45063</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45064</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I58" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="J58" s="3">
+        <v>0</v>
+      </c>
+      <c r="K58" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45063</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45063</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I59" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J59" s="3">
+        <v>0</v>
+      </c>
+      <c r="K59" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L59" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="60" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45064</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45064</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I60" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45065</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45069</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I61" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="J61" s="3">
+        <v>0</v>
+      </c>
+      <c r="K61" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L61" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="62" spans="1:12" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45065</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45065</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I62" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J62" s="3">
+        <v>0</v>
+      </c>
+      <c r="K62" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L62" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45069</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45069</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I63" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45070</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45071</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I64" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="J64" s="3">
+        <v>0</v>
+      </c>
+      <c r="K64" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L64" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45070</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45070</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="J65" s="3">
+        <v>0</v>
+      </c>
+      <c r="K65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="L65" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45071</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45071</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I66" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="J66" s="3">
+        <v>0</v>
+      </c>
+      <c r="L66" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>18</v>
+      </c>
+      <c r="B67" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="C67" s="2">
+        <v>45071</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45076</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="I67" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="J67" s="3">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L67" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>19</v>
+      </c>
+      <c r="B68" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C68" s="2">
+        <v>45076</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45076</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G68" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="H68" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="I68" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="J68" s="3">
+        <v>0</v>
+      </c>
+      <c r="K68" s="5"/>
+      <c r="L68" s="5"/>
+      <c r="M68" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="landscape" horizontalDpi="4294967293" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{23626F3A-6FCA-4140-BD39-964DE58164F5}">
+  <dimension ref="A1:E68"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="6.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33" style="4" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="16.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="22.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="15.140625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.5703125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" style="3"/>
-    <col min="11" max="11" width="18.140625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="59.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" style="1" customWidth="1"/>
-    <col min="14" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="7.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="32.5703125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -799,38 +3651,14 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="1" t="s">
         <v>51</v>
       </c>
       <c r="C2" s="2">
@@ -839,36 +3667,15 @@
       <c r="D2" s="2">
         <v>44939</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="5" t="s">
+      <c r="E2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="2">
@@ -877,36 +3684,15 @@
       <c r="D3" s="2">
         <v>44942</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
+      <c r="E3" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="1" t="s">
         <v>50</v>
       </c>
       <c r="C4" s="2">
@@ -915,36 +3701,15 @@
       <c r="D4" s="2">
         <v>44943</v>
       </c>
-      <c r="E4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I4" s="5" t="s">
+      <c r="E4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="1" t="s">
         <v>14</v>
       </c>
       <c r="C5" s="2">
@@ -953,36 +3718,15 @@
       <c r="D5" s="2">
         <v>44943</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="F5" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I5" s="5" t="s">
+      <c r="E5" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>52</v>
       </c>
       <c r="C6" s="2">
@@ -991,36 +3735,15 @@
       <c r="D6" s="2">
         <v>44964</v>
       </c>
-      <c r="E6" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="F6" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I6" s="5" t="s">
+      <c r="E6" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="1" t="s">
         <v>15</v>
       </c>
       <c r="C7" s="2">
@@ -1030,35 +3753,14 @@
         <v>44978</v>
       </c>
       <c r="E7" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I7" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
         <v>7</v>
       </c>
-      <c r="B8" s="6" t="s">
+      <c r="B8" s="1" t="s">
         <v>53</v>
       </c>
       <c r="C8" s="2">
@@ -1068,35 +3770,14 @@
         <v>44966</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="I8" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="2">
@@ -1106,35 +3787,14 @@
         <v>44985</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I9" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C10" s="2">
@@ -1144,35 +3804,14 @@
         <v>44985</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I10" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J10" s="3">
-        <v>0</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="L10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
         <v>10</v>
       </c>
-      <c r="B11" s="6" t="s">
+      <c r="B11" s="1" t="s">
         <v>49</v>
       </c>
       <c r="C11" s="2">
@@ -1181,36 +3820,15 @@
       <c r="D11" s="2">
         <v>44980</v>
       </c>
-      <c r="E11" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F11" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G11" s="1" t="s">
+      <c r="E11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="H11" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I11" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="L11" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="1" t="s">
         <v>43</v>
       </c>
       <c r="C12" s="2">
@@ -1219,36 +3837,15 @@
       <c r="D12" s="2">
         <v>44980</v>
       </c>
-      <c r="E12" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F12" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="H12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="J12" s="3">
-        <v>0</v>
-      </c>
-      <c r="K12" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="L12" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="1" t="s">
         <v>48</v>
       </c>
       <c r="C13" s="2">
@@ -1258,35 +3855,14 @@
         <v>44980</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J13" s="3">
-        <v>0</v>
-      </c>
-      <c r="K13" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L13" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="60" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="1" t="s">
         <v>44</v>
       </c>
       <c r="C14" s="2">
@@ -1295,36 +3871,15 @@
       <c r="D14" s="2">
         <v>44980</v>
       </c>
-      <c r="E14" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H14" s="1" t="s">
+      <c r="E14" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="I14" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="45" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
         <v>14</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="1" t="s">
         <v>45</v>
       </c>
       <c r="C15" s="2">
@@ -1333,74 +3888,32 @@
       <c r="D15" s="2">
         <v>44980</v>
       </c>
-      <c r="E15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I15" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J15" s="3">
-        <v>0</v>
-      </c>
-      <c r="K15" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L15" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="30" x14ac:dyDescent="0.25">
+      <c r="E15" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
         <v>15</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="1" t="s">
         <v>46</v>
       </c>
       <c r="C16" s="2">
         <v>44980</v>
       </c>
       <c r="D16" s="2">
-        <v>44984</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J16" s="3">
-        <v>0</v>
-      </c>
-      <c r="K16" s="5" t="s">
+        <v>44985</v>
+      </c>
+      <c r="E16" s="1" t="s">
         <v>79</v>
       </c>
-      <c r="L16" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
         <v>16</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="1" t="s">
         <v>47</v>
       </c>
       <c r="C17" s="2">
@@ -1409,86 +3922,881 @@
       <c r="D17" s="2">
         <v>44992</v>
       </c>
-      <c r="E17" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F17" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="I17" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="J17" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E17" s="1" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A18" s="1">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C18" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D18" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="1">
         <v>17.100000000000001</v>
       </c>
-      <c r="B19" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C19" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D19" s="2">
+        <v>44994</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B20" s="6" t="s">
+      <c r="C20" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D20" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+      <c r="B21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="C21" s="2">
+        <v>44985</v>
+      </c>
+      <c r="D21" s="2">
+        <v>44985</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>17.2</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C22" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D22" s="2">
+        <v>44999</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="2">
+        <v>44995</v>
+      </c>
+      <c r="D23" s="2">
+        <v>44995</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A24" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="2">
+        <v>44999</v>
+      </c>
+      <c r="D24" s="2">
+        <v>44999</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>17.3</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C25" s="2">
+        <v>44996</v>
+      </c>
+      <c r="D25" s="2">
+        <v>45009</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="2">
+        <v>44996</v>
+      </c>
+      <c r="D26" s="2">
+        <v>44996</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A27" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" s="2">
+        <v>45009</v>
+      </c>
+      <c r="D27" s="2">
+        <v>45009</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C28" s="2">
+        <v>45010</v>
+      </c>
+      <c r="D28" s="2">
+        <v>45013</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C29" s="2">
+        <v>45010</v>
+      </c>
+      <c r="D29" s="2">
+        <v>45010</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C30" s="2">
+        <v>45013</v>
+      </c>
+      <c r="D30" s="2">
+        <v>45013</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>17.5</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C31" s="2">
+        <v>45014</v>
+      </c>
+      <c r="D31" s="2">
+        <v>45034</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2">
+        <v>45014</v>
+      </c>
+      <c r="D32" s="2">
+        <v>45014</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" s="2">
+        <v>45034</v>
+      </c>
+      <c r="D33" s="2">
+        <v>45034</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C34" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D34" s="2">
+        <v>45036</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C35" s="2">
+        <v>45035</v>
+      </c>
+      <c r="D35" s="2">
+        <v>45035</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C36" s="2">
+        <v>45036</v>
+      </c>
+      <c r="D36" s="2">
+        <v>45036</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>17.7</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="2">
+        <v>45037</v>
+      </c>
+      <c r="D37" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C38" s="2">
+        <v>45037</v>
+      </c>
+      <c r="D38" s="2">
+        <v>45037</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C39" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D39" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>17.8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C40" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D40" s="2">
+        <v>45043</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A41" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C41" s="2">
+        <v>45041</v>
+      </c>
+      <c r="D41" s="2">
+        <v>45041</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C42" s="2">
+        <v>45043</v>
+      </c>
+      <c r="D42" s="2">
+        <v>45043</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>18.899999999999999</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D43" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A44" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C44" s="2">
+        <v>45044</v>
+      </c>
+      <c r="D44" s="2">
+        <v>45044</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A45" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="2">
+        <v>45048</v>
+      </c>
+      <c r="D45" s="2">
+        <v>45048</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A46" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C46" s="2">
+        <v>45049</v>
+      </c>
+      <c r="D46" s="2">
+        <v>45050</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C47" s="2">
+        <v>45049</v>
+      </c>
+      <c r="D47" s="2">
+        <v>45049</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C48" s="2">
+        <v>45050</v>
+      </c>
+      <c r="D48" s="2">
+        <v>45050</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>17.11</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C49" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D49" s="2">
+        <v>45055</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A50" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C50" s="2">
+        <v>45051</v>
+      </c>
+      <c r="D50" s="2">
+        <v>45051</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A51" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C51" s="2">
+        <v>45055</v>
+      </c>
+      <c r="D51" s="2">
+        <v>45055</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>17.12</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C52" s="2">
+        <v>45056</v>
+      </c>
+      <c r="D52" s="2">
+        <v>45057</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A53" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C53" s="2">
+        <v>45056</v>
+      </c>
+      <c r="D53" s="2">
+        <v>45056</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A54" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C54" s="2">
+        <v>45057</v>
+      </c>
+      <c r="D54" s="2">
+        <v>45057</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>17.13</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C55" s="2">
+        <v>45058</v>
+      </c>
+      <c r="D55" s="2">
+        <v>45062</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C56" s="2">
+        <v>45058</v>
+      </c>
+      <c r="D56" s="2">
+        <v>45058</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="2">
+        <v>45062</v>
+      </c>
+      <c r="D57" s="2">
+        <v>45062</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A58" s="1">
+        <v>17.14</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C58" s="2">
+        <v>45063</v>
+      </c>
+      <c r="D58" s="2">
+        <v>45064</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C59" s="2">
+        <v>45063</v>
+      </c>
+      <c r="D59" s="2">
+        <v>45063</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C60" s="2">
+        <v>45064</v>
+      </c>
+      <c r="D60" s="2">
+        <v>45064</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="1">
+        <v>18.149999999999999</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2">
+        <v>45065</v>
+      </c>
+      <c r="D61" s="2">
+        <v>45069</v>
+      </c>
+      <c r="E61" s="1" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C62" s="2">
+        <v>45065</v>
+      </c>
+      <c r="D62" s="2">
+        <v>45065</v>
+      </c>
+      <c r="E62" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C63" s="2">
+        <v>45069</v>
+      </c>
+      <c r="D63" s="2">
+        <v>45069</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A64" s="1">
+        <v>18.16</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2">
+        <v>45070</v>
+      </c>
+      <c r="D64" s="2">
+        <v>45071</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C65" s="2">
+        <v>45070</v>
+      </c>
+      <c r="D65" s="2">
+        <v>45070</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C66" s="2">
+        <v>45071</v>
+      </c>
+      <c r="D66" s="2">
+        <v>45071</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="4">
+        <v>18</v>
+      </c>
+      <c r="B67" s="6" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B22" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="1">
-        <v>18</v>
-      </c>
-      <c r="B23" s="4" t="s">
+      <c r="C67" s="2">
+        <v>45071</v>
+      </c>
+      <c r="D67" s="2">
+        <v>45076</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A68" s="4">
+        <v>19</v>
+      </c>
+      <c r="B68" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="1">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>62</v>
+      <c r="C68" s="2">
+        <v>45076</v>
+      </c>
+      <c r="D68" s="2">
+        <v>45076</v>
+      </c>
+      <c r="E68" s="5" t="s">
+        <v>158</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="landscape" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
 </file>